--- a/data/pca/factorExposure/factorExposure_2011-02-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.009642277597474628</v>
+        <v>0.01576912787031855</v>
       </c>
       <c r="C2">
-        <v>-8.085575519018152e-05</v>
+        <v>0.002278288070851551</v>
       </c>
       <c r="D2">
-        <v>0.02716316413488137</v>
+        <v>-0.003383888179427851</v>
       </c>
       <c r="E2">
-        <v>-0.02309579890176615</v>
+        <v>0.01737028709533216</v>
       </c>
       <c r="F2">
-        <v>-0.007837017354127567</v>
+        <v>0.005514634435533596</v>
       </c>
       <c r="G2">
-        <v>0.01070572228587826</v>
+        <v>-0.02196064688366306</v>
       </c>
       <c r="H2">
-        <v>-0.06067429137033783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.01109145318395628</v>
+      </c>
+      <c r="I2">
+        <v>0.005611778563204732</v>
+      </c>
+      <c r="J2">
+        <v>-0.01325521794212275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1100790920717317</v>
+        <v>0.1259051951738626</v>
       </c>
       <c r="C4">
-        <v>-0.01602930028163445</v>
+        <v>0.05181170224949393</v>
       </c>
       <c r="D4">
-        <v>0.06454515804238373</v>
+        <v>-0.008779695030426566</v>
       </c>
       <c r="E4">
-        <v>-0.05603681706912834</v>
+        <v>0.001113694381991895</v>
       </c>
       <c r="F4">
-        <v>-0.00977033301207101</v>
+        <v>-0.009621115642032795</v>
       </c>
       <c r="G4">
-        <v>0.03576417706750648</v>
+        <v>0.01404748018287191</v>
       </c>
       <c r="H4">
-        <v>0.03333365371610788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.06195049623343189</v>
+      </c>
+      <c r="I4">
+        <v>-0.1015967817987974</v>
+      </c>
+      <c r="J4">
+        <v>0.08052615198743063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1268457556440954</v>
+        <v>0.1189146140759846</v>
       </c>
       <c r="C6">
-        <v>-0.02883790647072726</v>
+        <v>-0.006048405273262797</v>
       </c>
       <c r="D6">
-        <v>-0.04495883097711809</v>
+        <v>-0.01570403323819839</v>
       </c>
       <c r="E6">
-        <v>-0.02213531736147018</v>
+        <v>0.01395812642857537</v>
       </c>
       <c r="F6">
-        <v>0.2543776866664682</v>
+        <v>0.02491562713436992</v>
       </c>
       <c r="G6">
-        <v>-0.1514669309399617</v>
+        <v>0.04768397741138358</v>
       </c>
       <c r="H6">
-        <v>0.2381826442236249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.03406597808017348</v>
+      </c>
+      <c r="I6">
+        <v>-0.06163916867814625</v>
+      </c>
+      <c r="J6">
+        <v>-0.09256948680548199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08811062063457929</v>
+        <v>0.08073781641595536</v>
       </c>
       <c r="C7">
-        <v>-0.03675084434411975</v>
+        <v>0.04180077933828878</v>
       </c>
       <c r="D7">
-        <v>0.02532295576115041</v>
+        <v>-0.03435590008091807</v>
       </c>
       <c r="E7">
-        <v>-0.04995779909841058</v>
+        <v>0.04230948410082491</v>
       </c>
       <c r="F7">
-        <v>0.005521066388828343</v>
+        <v>0.008916818588007013</v>
       </c>
       <c r="G7">
-        <v>-0.002680449005796651</v>
+        <v>-0.04222631442686574</v>
       </c>
       <c r="H7">
-        <v>0.009673197662486146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.03555467451268578</v>
+      </c>
+      <c r="I7">
+        <v>-0.00720346741185139</v>
+      </c>
+      <c r="J7">
+        <v>0.05921163547847363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03981232951081979</v>
+        <v>0.05123731000225822</v>
       </c>
       <c r="C8">
-        <v>0.04103489494289092</v>
+        <v>0.003039592671114145</v>
       </c>
       <c r="D8">
-        <v>0.0641258827021027</v>
+        <v>-0.007362029429204641</v>
       </c>
       <c r="E8">
-        <v>-0.09889223984082932</v>
+        <v>0.02163314479919218</v>
       </c>
       <c r="F8">
-        <v>0.0364836811260662</v>
+        <v>-0.02699243628533147</v>
       </c>
       <c r="G8">
-        <v>0.1577674435578187</v>
+        <v>0.01997402704862371</v>
       </c>
       <c r="H8">
-        <v>0.0857642623907847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.07562004174172383</v>
+      </c>
+      <c r="I8">
+        <v>-0.08210213470772235</v>
+      </c>
+      <c r="J8">
+        <v>0.01427139134071845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09618175624332598</v>
+        <v>0.0996824998230362</v>
       </c>
       <c r="C9">
-        <v>-0.03257544369420582</v>
+        <v>0.05097481582925196</v>
       </c>
       <c r="D9">
-        <v>0.04008269252471769</v>
+        <v>0.00783154736280098</v>
       </c>
       <c r="E9">
-        <v>-0.05102102350429421</v>
+        <v>0.01373101079503415</v>
       </c>
       <c r="F9">
-        <v>0.009963432756823376</v>
+        <v>-0.01900103277996537</v>
       </c>
       <c r="G9">
-        <v>0.07511135882121228</v>
+        <v>0.002251304174517338</v>
       </c>
       <c r="H9">
-        <v>0.05441920171369658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.07124836538515332</v>
+      </c>
+      <c r="I9">
+        <v>-0.08177181157457282</v>
+      </c>
+      <c r="J9">
+        <v>0.05434463248512768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.04062515764567234</v>
+        <v>0.06162777761471078</v>
       </c>
       <c r="C10">
-        <v>0.1816718613687623</v>
+        <v>-0.1905548124539002</v>
       </c>
       <c r="D10">
-        <v>0.009665354122585113</v>
+        <v>0.002668077903984509</v>
       </c>
       <c r="E10">
-        <v>-0.09878123682808738</v>
+        <v>0.002109414119657409</v>
       </c>
       <c r="F10">
-        <v>0.03680574424287864</v>
+        <v>-0.004274391957852517</v>
       </c>
       <c r="G10">
-        <v>-0.03308571857003519</v>
+        <v>-0.05982224394191803</v>
       </c>
       <c r="H10">
-        <v>0.02156867578149974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.0211394689284069</v>
+      </c>
+      <c r="I10">
+        <v>-0.01787907049281383</v>
+      </c>
+      <c r="J10">
+        <v>0.01831099414836066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07705680343142701</v>
+        <v>0.09498324040804228</v>
       </c>
       <c r="C11">
-        <v>-0.05713838811522</v>
+        <v>0.06695469277904789</v>
       </c>
       <c r="D11">
-        <v>-0.02103815525100496</v>
+        <v>-0.02832526975235814</v>
       </c>
       <c r="E11">
-        <v>-0.01781241722887425</v>
+        <v>0.04347671162435182</v>
       </c>
       <c r="F11">
-        <v>-0.02123638398400968</v>
+        <v>-0.06399565318297165</v>
       </c>
       <c r="G11">
-        <v>0.1430250309217262</v>
+        <v>0.02590981916855639</v>
       </c>
       <c r="H11">
-        <v>-0.03706350304525699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.08661012563401291</v>
+      </c>
+      <c r="I11">
+        <v>-0.07770069025858012</v>
+      </c>
+      <c r="J11">
+        <v>0.02092220138821579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07618470235720737</v>
+        <v>0.09732321380631941</v>
       </c>
       <c r="C12">
-        <v>-0.03340892055127465</v>
+        <v>0.06728692906153388</v>
       </c>
       <c r="D12">
-        <v>0.01421436445360025</v>
+        <v>-0.02917033784479722</v>
       </c>
       <c r="E12">
-        <v>-0.01038621119867937</v>
+        <v>0.04094877441346001</v>
       </c>
       <c r="F12">
-        <v>0.02330305038159097</v>
+        <v>-0.08077334385097876</v>
       </c>
       <c r="G12">
-        <v>0.1438517577572984</v>
+        <v>0.01153307287504241</v>
       </c>
       <c r="H12">
-        <v>-0.03895569995895939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.08840079358703723</v>
+      </c>
+      <c r="I12">
+        <v>-0.04862094778277473</v>
+      </c>
+      <c r="J12">
+        <v>0.0013564785602669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06219915223274489</v>
+        <v>0.0481976695099041</v>
       </c>
       <c r="C13">
-        <v>-0.007042915322043574</v>
+        <v>0.01620562488223881</v>
       </c>
       <c r="D13">
-        <v>0.02520975221974672</v>
+        <v>0.02860890182980716</v>
       </c>
       <c r="E13">
-        <v>-0.01527669915365358</v>
+        <v>0.009826729211450972</v>
       </c>
       <c r="F13">
-        <v>-0.04246046632820627</v>
+        <v>-0.0003355013483295035</v>
       </c>
       <c r="G13">
-        <v>0.1085311462392449</v>
+        <v>0.009664941551700407</v>
       </c>
       <c r="H13">
-        <v>0.05189970624039075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.07667044786299536</v>
+      </c>
+      <c r="I13">
+        <v>-0.04599561257582054</v>
+      </c>
+      <c r="J13">
+        <v>-0.002944880028602422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05233841480137086</v>
+        <v>0.03345641752221341</v>
       </c>
       <c r="C14">
-        <v>-0.006299887059345472</v>
+        <v>0.005428817766735206</v>
       </c>
       <c r="D14">
-        <v>0.0198450323885739</v>
+        <v>-0.00524920840629737</v>
       </c>
       <c r="E14">
-        <v>-0.04928151721621715</v>
+        <v>0.002718509684567891</v>
       </c>
       <c r="F14">
-        <v>0.003331860163057836</v>
+        <v>-0.01444967778901207</v>
       </c>
       <c r="G14">
-        <v>0.01172309464084127</v>
+        <v>-0.002852329718922629</v>
       </c>
       <c r="H14">
-        <v>0.1386737427540009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.02658897854802827</v>
+      </c>
+      <c r="I14">
+        <v>-0.03103636065577557</v>
+      </c>
+      <c r="J14">
+        <v>0.1060615135325184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03791161712513555</v>
+        <v>0.03290043820400696</v>
       </c>
       <c r="C15">
-        <v>0.01118330489469247</v>
+        <v>0.0167350664140607</v>
       </c>
       <c r="D15">
-        <v>0.004381751198226384</v>
+        <v>0.009896848693543995</v>
       </c>
       <c r="E15">
-        <v>-0.02168954242613748</v>
+        <v>0.01601921244226533</v>
       </c>
       <c r="F15">
-        <v>0.001623494371129</v>
+        <v>0.02261387743422302</v>
       </c>
       <c r="G15">
-        <v>0.00293726505608758</v>
+        <v>0.003840726981263692</v>
       </c>
       <c r="H15">
-        <v>0.07768064407360151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04918682674221612</v>
+      </c>
+      <c r="I15">
+        <v>-0.01667137152154289</v>
+      </c>
+      <c r="J15">
+        <v>0.04297048867478458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.085019594938592</v>
+        <v>0.09948584360640918</v>
       </c>
       <c r="C16">
-        <v>-0.063374768290064</v>
+        <v>0.06432232379736245</v>
       </c>
       <c r="D16">
-        <v>0.02609689472368784</v>
+        <v>-0.03896748991495792</v>
       </c>
       <c r="E16">
-        <v>-0.01922834714888744</v>
+        <v>0.05052163165204413</v>
       </c>
       <c r="F16">
-        <v>-0.02793048840378773</v>
+        <v>-0.06308886412014418</v>
       </c>
       <c r="G16">
-        <v>0.1273416881298352</v>
+        <v>0.01836137291351815</v>
       </c>
       <c r="H16">
-        <v>-0.03740377390732863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.09773002880810296</v>
+      </c>
+      <c r="I16">
+        <v>-0.05465903036540296</v>
+      </c>
+      <c r="J16">
+        <v>0.02373167775277366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05719258562618482</v>
+        <v>0.05630796476186162</v>
       </c>
       <c r="C20">
-        <v>-0.01544183448522229</v>
+        <v>0.02989788588559511</v>
       </c>
       <c r="D20">
-        <v>-0.01203375165546222</v>
+        <v>-0.03156556601448356</v>
       </c>
       <c r="E20">
-        <v>-0.0178469222561366</v>
+        <v>0.004351514375786348</v>
       </c>
       <c r="F20">
-        <v>0.01143440059107678</v>
+        <v>0.004162177989602425</v>
       </c>
       <c r="G20">
-        <v>0.1108244287094675</v>
+        <v>0.005564754595448587</v>
       </c>
       <c r="H20">
-        <v>0.01872737824022155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.04280526617981097</v>
+      </c>
+      <c r="I20">
+        <v>-0.03126254117735292</v>
+      </c>
+      <c r="J20">
+        <v>0.07101081371930169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02753465132920569</v>
+        <v>0.02316422333936502</v>
       </c>
       <c r="C21">
-        <v>-0.02993798513361819</v>
+        <v>0.002232333334133272</v>
       </c>
       <c r="D21">
-        <v>-1.985154462642682e-06</v>
+        <v>-0.006640490123132243</v>
       </c>
       <c r="E21">
-        <v>0.003680175563345695</v>
+        <v>-0.03348169435063623</v>
       </c>
       <c r="F21">
-        <v>0.06416382242290829</v>
+        <v>0.002270003368824803</v>
       </c>
       <c r="G21">
-        <v>-0.1451066829567297</v>
+        <v>0.03124830969370849</v>
       </c>
       <c r="H21">
-        <v>0.08456746242379579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.01795365370085227</v>
+      </c>
+      <c r="I21">
+        <v>-0.05159166043085434</v>
+      </c>
+      <c r="J21">
+        <v>0.04981980965713093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04222144762779027</v>
+        <v>0.03339827223388469</v>
       </c>
       <c r="C22">
-        <v>-0.00922979916538566</v>
+        <v>-0.03046343054169828</v>
       </c>
       <c r="D22">
-        <v>0.6237515243081211</v>
+        <v>0.008252375714800702</v>
       </c>
       <c r="E22">
-        <v>0.1130884235183211</v>
+        <v>0.09888616843599971</v>
       </c>
       <c r="F22">
-        <v>-0.03415367977053098</v>
+        <v>0.5800384205485328</v>
       </c>
       <c r="G22">
-        <v>-0.2159640871012492</v>
+        <v>-0.04797968125660299</v>
       </c>
       <c r="H22">
-        <v>-0.07142895010521975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.3116824300966214</v>
+      </c>
+      <c r="I22">
+        <v>0.08440324431325641</v>
+      </c>
+      <c r="J22">
+        <v>-0.08373408990707276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04264866173187357</v>
+        <v>0.03358104253824381</v>
       </c>
       <c r="C23">
-        <v>-0.01005239918978221</v>
+        <v>-0.03018200768525621</v>
       </c>
       <c r="D23">
-        <v>0.6233920850637225</v>
+        <v>0.007833333040143281</v>
       </c>
       <c r="E23">
-        <v>0.111446617646358</v>
+        <v>0.1005000576697539</v>
       </c>
       <c r="F23">
-        <v>-0.03429399026513209</v>
+        <v>0.5816790432522607</v>
       </c>
       <c r="G23">
-        <v>-0.2179171847796134</v>
+        <v>-0.04742512570698652</v>
       </c>
       <c r="H23">
-        <v>-0.07124676515475649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.3133323776187102</v>
+      </c>
+      <c r="I23">
+        <v>0.08217763202352497</v>
+      </c>
+      <c r="J23">
+        <v>-0.08204685513514373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08514222370628542</v>
+        <v>0.1010225281704718</v>
       </c>
       <c r="C24">
-        <v>-0.04434906468800136</v>
+        <v>0.05862931770342621</v>
       </c>
       <c r="D24">
-        <v>0.02942282614232704</v>
+        <v>-0.03419562159301821</v>
       </c>
       <c r="E24">
-        <v>-0.03426179384472654</v>
+        <v>0.03852568846767473</v>
       </c>
       <c r="F24">
-        <v>0.0005874125609401261</v>
+        <v>-0.0632595387355301</v>
       </c>
       <c r="G24">
-        <v>0.1169684574626392</v>
+        <v>0.002489006173298733</v>
       </c>
       <c r="H24">
-        <v>-0.02381845482429264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.1002808020298111</v>
+      </c>
+      <c r="I24">
+        <v>-0.05256448479900493</v>
+      </c>
+      <c r="J24">
+        <v>0.008079716828642169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07742771204488297</v>
+        <v>0.1013060493536357</v>
       </c>
       <c r="C25">
-        <v>-0.01821932828386197</v>
+        <v>0.04822411661131926</v>
       </c>
       <c r="D25">
-        <v>0.01648800182022244</v>
+        <v>-0.02886845350306642</v>
       </c>
       <c r="E25">
-        <v>-0.02095002085903417</v>
+        <v>0.0429765046270481</v>
       </c>
       <c r="F25">
-        <v>0.02046664208325006</v>
+        <v>-0.09153715086820481</v>
       </c>
       <c r="G25">
-        <v>0.1162334198325483</v>
+        <v>0.01139845517824696</v>
       </c>
       <c r="H25">
-        <v>-0.02906663402690858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09415737731140542</v>
+      </c>
+      <c r="I25">
+        <v>-0.05199217588783599</v>
+      </c>
+      <c r="J25">
+        <v>0.03332150378582616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05154232662748655</v>
+        <v>0.04476271596098851</v>
       </c>
       <c r="C26">
-        <v>-0.02209644670240448</v>
+        <v>-0.0003857848317642405</v>
       </c>
       <c r="D26">
-        <v>0.005933371459490332</v>
+        <v>-0.0267965087196931</v>
       </c>
       <c r="E26">
-        <v>-0.04924020408719171</v>
+        <v>0.004284854393124199</v>
       </c>
       <c r="F26">
-        <v>-0.03954635646071623</v>
+        <v>-0.01368735634522953</v>
       </c>
       <c r="G26">
-        <v>0.07395849304915586</v>
+        <v>0.02882605024614388</v>
       </c>
       <c r="H26">
-        <v>0.1023899933396581</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05911949804671448</v>
+      </c>
+      <c r="I26">
+        <v>-0.01510370360290864</v>
+      </c>
+      <c r="J26">
+        <v>0.06769236853983511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06180329970609365</v>
+        <v>0.06126149956281677</v>
       </c>
       <c r="C28">
-        <v>0.3091651706366139</v>
+        <v>-0.307568955489842</v>
       </c>
       <c r="D28">
-        <v>-0.01116046737913184</v>
+        <v>0.07236680533630406</v>
       </c>
       <c r="E28">
-        <v>-0.01805373039270566</v>
+        <v>0.03335090371042664</v>
       </c>
       <c r="F28">
-        <v>-0.002809694836807161</v>
+        <v>-0.05571186934191383</v>
       </c>
       <c r="G28">
-        <v>-0.002606922346617752</v>
+        <v>0.02591908103725971</v>
       </c>
       <c r="H28">
-        <v>-0.0558959594393334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.04290814951264987</v>
+      </c>
+      <c r="I28">
+        <v>-0.04420197226638898</v>
+      </c>
+      <c r="J28">
+        <v>0.01810279748958383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05764682062086788</v>
+        <v>0.03617153845933954</v>
       </c>
       <c r="C29">
-        <v>0.002252486131334358</v>
+        <v>0.004652796564839333</v>
       </c>
       <c r="D29">
-        <v>0.04051642203143854</v>
+        <v>0.005865746756883226</v>
       </c>
       <c r="E29">
-        <v>-0.02968719779190981</v>
+        <v>0.008265439004216319</v>
       </c>
       <c r="F29">
-        <v>-0.01315551738944816</v>
+        <v>-0.02380414550036894</v>
       </c>
       <c r="G29">
-        <v>0.04288438168598661</v>
+        <v>-0.01181007164981896</v>
       </c>
       <c r="H29">
-        <v>0.1006994841595907</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.05979108702224298</v>
+      </c>
+      <c r="I29">
+        <v>-0.009168485404107359</v>
+      </c>
+      <c r="J29">
+        <v>0.1138576480324303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1128496395056588</v>
+        <v>0.121824301312002</v>
       </c>
       <c r="C30">
-        <v>0.01085155297174095</v>
+        <v>0.05806235291033671</v>
       </c>
       <c r="D30">
-        <v>0.1577572835329275</v>
+        <v>0.009573108274415565</v>
       </c>
       <c r="E30">
-        <v>-0.03360104079305026</v>
+        <v>0.0303907348725773</v>
       </c>
       <c r="F30">
-        <v>0.1814342283456335</v>
+        <v>-0.05201443725977407</v>
       </c>
       <c r="G30">
-        <v>0.1981032896971792</v>
+        <v>0.0820584187051883</v>
       </c>
       <c r="H30">
-        <v>-0.01532837545996563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1490609827488746</v>
+      </c>
+      <c r="I30">
+        <v>-0.061131284023777</v>
+      </c>
+      <c r="J30">
+        <v>-0.1354521241290172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05612581819688744</v>
+        <v>0.03840477012941328</v>
       </c>
       <c r="C31">
-        <v>-0.0280336010264629</v>
+        <v>0.02290870383832946</v>
       </c>
       <c r="D31">
-        <v>0.02181940155840068</v>
+        <v>-0.02068151846054221</v>
       </c>
       <c r="E31">
-        <v>0.008097221339160009</v>
+        <v>0.0201984924254374</v>
       </c>
       <c r="F31">
-        <v>-0.007611749681644178</v>
+        <v>0.005944991225996325</v>
       </c>
       <c r="G31">
-        <v>0.02764752609942506</v>
+        <v>-0.0001241946913968654</v>
       </c>
       <c r="H31">
-        <v>0.03834889955442662</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.008907347850638583</v>
+      </c>
+      <c r="I31">
+        <v>-0.02367752999106044</v>
+      </c>
+      <c r="J31">
+        <v>0.06689488857592686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03417707185691008</v>
+        <v>0.05700225081340066</v>
       </c>
       <c r="C32">
-        <v>0.01535239918671</v>
+        <v>0.004396668129581368</v>
       </c>
       <c r="D32">
-        <v>0.06396389780010438</v>
+        <v>-0.02200202617747707</v>
       </c>
       <c r="E32">
-        <v>0.003347460293432277</v>
+        <v>0.0007198998996805096</v>
       </c>
       <c r="F32">
-        <v>-0.09907979763704979</v>
+        <v>-0.04932307190359648</v>
       </c>
       <c r="G32">
-        <v>0.05867062547753279</v>
+        <v>0.06302471615556372</v>
       </c>
       <c r="H32">
-        <v>0.04197907725018099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.03764044304462071</v>
+      </c>
+      <c r="I32">
+        <v>-0.0051172726332506</v>
+      </c>
+      <c r="J32">
+        <v>0.03062761417815532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1114161854652975</v>
+        <v>0.1107439885287029</v>
       </c>
       <c r="C33">
-        <v>-0.01436455926919966</v>
+        <v>0.04664677695639839</v>
       </c>
       <c r="D33">
-        <v>0.02144290057265669</v>
+        <v>-0.002096403463864062</v>
       </c>
       <c r="E33">
-        <v>0.0245478913092368</v>
+        <v>0.07069497490880038</v>
       </c>
       <c r="F33">
-        <v>-0.001401123151754911</v>
+        <v>-0.05169188224691214</v>
       </c>
       <c r="G33">
-        <v>0.07090183725218771</v>
+        <v>0.01440673927953815</v>
       </c>
       <c r="H33">
-        <v>0.06475274931964656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.07476300546242566</v>
+      </c>
+      <c r="I33">
+        <v>-0.01096287631918383</v>
+      </c>
+      <c r="J33">
+        <v>0.02440891176201855</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06943786975831806</v>
+        <v>0.08685158693923992</v>
       </c>
       <c r="C34">
-        <v>-0.03733180288665192</v>
+        <v>0.04106894440709701</v>
       </c>
       <c r="D34">
-        <v>0.003681976586905448</v>
+        <v>-0.03098592336345697</v>
       </c>
       <c r="E34">
-        <v>-0.0008061329518394899</v>
+        <v>0.03891716467880473</v>
       </c>
       <c r="F34">
-        <v>-0.03078907619208855</v>
+        <v>-0.06694651132259356</v>
       </c>
       <c r="G34">
-        <v>0.09484147800618409</v>
+        <v>0.006533830681578609</v>
       </c>
       <c r="H34">
-        <v>-0.01061739323548441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.09930705831261359</v>
+      </c>
+      <c r="I34">
+        <v>-0.02618291711389097</v>
+      </c>
+      <c r="J34">
+        <v>0.01173099692986271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04343351203213122</v>
+        <v>0.02201463447121928</v>
       </c>
       <c r="C35">
-        <v>-0.001295813113034579</v>
+        <v>0.00636957992379114</v>
       </c>
       <c r="D35">
-        <v>-0.02303295948120463</v>
+        <v>0.008754203063115739</v>
       </c>
       <c r="E35">
-        <v>0.01204691618694024</v>
+        <v>0.007834683433387892</v>
       </c>
       <c r="F35">
-        <v>0.03340028539564507</v>
+        <v>-0.01770778111179358</v>
       </c>
       <c r="G35">
-        <v>0.0440137791233417</v>
+        <v>0.002387906708373483</v>
       </c>
       <c r="H35">
-        <v>-0.01377919247454983</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.03934141971638908</v>
+      </c>
+      <c r="I35">
+        <v>-0.005595316503832233</v>
+      </c>
+      <c r="J35">
+        <v>0.064109178751553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03932753241322259</v>
+        <v>0.02943685456390838</v>
       </c>
       <c r="C36">
-        <v>-0.001001461798562874</v>
+        <v>0.01292408456104664</v>
       </c>
       <c r="D36">
-        <v>0.01759505646447751</v>
+        <v>0.006071272405610903</v>
       </c>
       <c r="E36">
-        <v>-0.02559588535225566</v>
+        <v>0.004857151121730624</v>
       </c>
       <c r="F36">
-        <v>0.0224391823913697</v>
+        <v>0.006115409513006129</v>
       </c>
       <c r="G36">
-        <v>0.06891962968619338</v>
+        <v>0.02515583761682785</v>
       </c>
       <c r="H36">
-        <v>0.05893171073598977</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.0298836687469926</v>
+      </c>
+      <c r="I36">
+        <v>-0.03512142943931648</v>
+      </c>
+      <c r="J36">
+        <v>0.03727542894277972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05304406310765126</v>
+        <v>0.01689352173278452</v>
       </c>
       <c r="C38">
-        <v>-0.02066747625876376</v>
+        <v>0.005667314948755591</v>
       </c>
       <c r="D38">
-        <v>0.006202479275126286</v>
+        <v>-0.006765046518039759</v>
       </c>
       <c r="E38">
-        <v>-0.007393150066665113</v>
+        <v>0.01035027059743547</v>
       </c>
       <c r="F38">
-        <v>-0.03482458001197038</v>
+        <v>0.02238476731060898</v>
       </c>
       <c r="G38">
-        <v>0.06008256005602692</v>
+        <v>-0.02334027970890511</v>
       </c>
       <c r="H38">
-        <v>0.008233120980522817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.008979414974488106</v>
+      </c>
+      <c r="I38">
+        <v>0.03805059805985437</v>
+      </c>
+      <c r="J38">
+        <v>-0.01051915879468281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1062328881952956</v>
+        <v>0.1545569062717996</v>
       </c>
       <c r="C39">
-        <v>-0.04095836977679085</v>
+        <v>0.1013308098831712</v>
       </c>
       <c r="D39">
-        <v>0.06025024848636649</v>
+        <v>-0.03143513598809178</v>
       </c>
       <c r="E39">
-        <v>-0.01949735639110325</v>
+        <v>0.05855629322655414</v>
       </c>
       <c r="F39">
-        <v>-0.02663272762248982</v>
+        <v>-0.1679154002052149</v>
       </c>
       <c r="G39">
-        <v>0.1650471931837692</v>
+        <v>0.02624768293759636</v>
       </c>
       <c r="H39">
-        <v>-0.09273899537727733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1572975548860989</v>
+      </c>
+      <c r="I39">
+        <v>-0.01761022046413463</v>
+      </c>
+      <c r="J39">
+        <v>0.04526265202831491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04590200656818032</v>
+        <v>0.01707726002458856</v>
       </c>
       <c r="C40">
-        <v>-0.01609901681127557</v>
+        <v>0.005784761820383532</v>
       </c>
       <c r="D40">
-        <v>0.04791364282614437</v>
+        <v>-0.01455487488900853</v>
       </c>
       <c r="E40">
-        <v>0.029416390702991</v>
+        <v>-0.00646497325442336</v>
       </c>
       <c r="F40">
-        <v>0.05233074491289751</v>
+        <v>0.04221095939296527</v>
       </c>
       <c r="G40">
-        <v>0.2908753461042445</v>
+        <v>0.01905785569392768</v>
       </c>
       <c r="H40">
-        <v>-0.08431980201071618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09632669083888107</v>
+      </c>
+      <c r="I40">
+        <v>-0.06018572566049765</v>
+      </c>
+      <c r="J40">
+        <v>-0.009176801745235445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.05083219862044857</v>
+        <v>0.02509973943810984</v>
       </c>
       <c r="C41">
-        <v>-0.02789143468285055</v>
+        <v>-0.007457264790044194</v>
       </c>
       <c r="D41">
-        <v>-0.02561195630582294</v>
+        <v>-0.03020293120713183</v>
       </c>
       <c r="E41">
-        <v>-0.005116860330807737</v>
+        <v>0.005313089602253955</v>
       </c>
       <c r="F41">
-        <v>-0.04179489750696607</v>
+        <v>-0.01217803330662047</v>
       </c>
       <c r="G41">
-        <v>0.05507251983429496</v>
+        <v>-0.007320215084140664</v>
       </c>
       <c r="H41">
-        <v>0.006566507222721326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.005126998646044026</v>
+      </c>
+      <c r="I41">
+        <v>0.0003109082636132916</v>
+      </c>
+      <c r="J41">
+        <v>0.05224704084271802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07398007942632032</v>
+        <v>0.03818648600692279</v>
       </c>
       <c r="C43">
-        <v>-0.02574973771044839</v>
+        <v>-0.0007496970895333963</v>
       </c>
       <c r="D43">
-        <v>0.02920744765803733</v>
+        <v>-0.03844254737640682</v>
       </c>
       <c r="E43">
-        <v>-0.01364340932574338</v>
+        <v>0.0319152364402704</v>
       </c>
       <c r="F43">
-        <v>-0.03671406500341575</v>
+        <v>0.002138063531529598</v>
       </c>
       <c r="G43">
-        <v>0.0117347106807377</v>
+        <v>-0.001166912246323673</v>
       </c>
       <c r="H43">
-        <v>-0.0001514277003750512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.007721609924619064</v>
+      </c>
+      <c r="I43">
+        <v>-0.004617819607770838</v>
+      </c>
+      <c r="J43">
+        <v>0.06290977943379107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08117284189271508</v>
+        <v>0.1267662349144577</v>
       </c>
       <c r="C44">
-        <v>-0.005607677629040573</v>
+        <v>0.05880334478430657</v>
       </c>
       <c r="D44">
-        <v>0.05965127608917786</v>
+        <v>0.005235486141097037</v>
       </c>
       <c r="E44">
-        <v>-0.1104192343531809</v>
+        <v>0.03521509721081702</v>
       </c>
       <c r="F44">
-        <v>-0.03366347335523056</v>
+        <v>-0.01238384707631135</v>
       </c>
       <c r="G44">
-        <v>0.09177418553194353</v>
+        <v>-0.06026042722995856</v>
       </c>
       <c r="H44">
-        <v>0.02094060936452298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2322471030630272</v>
+      </c>
+      <c r="I44">
+        <v>-0.08489006930157839</v>
+      </c>
+      <c r="J44">
+        <v>-0.1595853783148806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05264396433039159</v>
+        <v>0.02503449117891998</v>
       </c>
       <c r="C46">
-        <v>-0.0352940071730943</v>
+        <v>-0.002755526668984823</v>
       </c>
       <c r="D46">
-        <v>0.04906816545591617</v>
+        <v>-0.02110414211254107</v>
       </c>
       <c r="E46">
-        <v>-0.00526809201372251</v>
+        <v>0.03079438284865221</v>
       </c>
       <c r="F46">
-        <v>-0.02060548418484014</v>
+        <v>0.0272705132834427</v>
       </c>
       <c r="G46">
-        <v>0.01661635109584159</v>
+        <v>-0.01298569162995944</v>
       </c>
       <c r="H46">
-        <v>0.08872598888418355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.0461413874519529</v>
+      </c>
+      <c r="I46">
+        <v>8.561798954387396e-05</v>
+      </c>
+      <c r="J46">
+        <v>0.105685298311964</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05004937073419631</v>
+        <v>0.04379052577975707</v>
       </c>
       <c r="C47">
-        <v>0.001821748241477643</v>
+        <v>-0.001311067421356746</v>
       </c>
       <c r="D47">
-        <v>0.04783610938152254</v>
+        <v>-0.01423815572013459</v>
       </c>
       <c r="E47">
-        <v>0.02369004448157264</v>
+        <v>0.007314204664434592</v>
       </c>
       <c r="F47">
-        <v>0.03641713232031682</v>
+        <v>0.003664349067446156</v>
       </c>
       <c r="G47">
-        <v>0.02921860536643707</v>
+        <v>0.02814417219298488</v>
       </c>
       <c r="H47">
-        <v>0.04353848554924716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.0455504534423736</v>
+      </c>
+      <c r="I47">
+        <v>-0.03920811299539773</v>
+      </c>
+      <c r="J47">
+        <v>0.04668210986998661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04330301954301048</v>
+        <v>0.04291050783885855</v>
       </c>
       <c r="C48">
-        <v>-0.00157069315689581</v>
+        <v>0.01383515539915573</v>
       </c>
       <c r="D48">
-        <v>0.02757048623129911</v>
+        <v>0.01043804879204687</v>
       </c>
       <c r="E48">
-        <v>0.03639608501989536</v>
+        <v>0.01054205232174932</v>
       </c>
       <c r="F48">
-        <v>0.02854841924765156</v>
+        <v>-0.008934367918757079</v>
       </c>
       <c r="G48">
-        <v>0.0537669180418161</v>
+        <v>0.03375647636886078</v>
       </c>
       <c r="H48">
-        <v>0.019542995870825</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05520393172363923</v>
+      </c>
+      <c r="I48">
+        <v>-0.02367485158734907</v>
+      </c>
+      <c r="J48">
+        <v>0.0811212099939195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2436100900978209</v>
+        <v>0.2290587656992779</v>
       </c>
       <c r="C49">
-        <v>-0.05692297784866774</v>
+        <v>-0.004737505487025923</v>
       </c>
       <c r="D49">
-        <v>-0.10925850747757</v>
+        <v>-0.0624783117301324</v>
       </c>
       <c r="E49">
-        <v>0.006751477679706334</v>
+        <v>-0.02293029837312372</v>
       </c>
       <c r="F49">
-        <v>0.01745568526349423</v>
+        <v>-0.01961898616907076</v>
       </c>
       <c r="G49">
-        <v>-0.1949705752444729</v>
+        <v>-0.1052349497040011</v>
       </c>
       <c r="H49">
-        <v>-0.1006387457463788</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.09599363269136711</v>
+      </c>
+      <c r="I49">
+        <v>0.07562823397838651</v>
+      </c>
+      <c r="J49">
+        <v>-0.2512377114261272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05562359412042256</v>
+        <v>0.04470922667663388</v>
       </c>
       <c r="C50">
-        <v>-0.01829021213009072</v>
+        <v>0.01920189325708163</v>
       </c>
       <c r="D50">
-        <v>0.02434576164178949</v>
+        <v>-0.02754060609147804</v>
       </c>
       <c r="E50">
-        <v>0.01363219495902406</v>
+        <v>0.01287472089652122</v>
       </c>
       <c r="F50">
-        <v>-0.02110843118691941</v>
+        <v>-0.004803892234067169</v>
       </c>
       <c r="G50">
-        <v>0.01947522472152805</v>
+        <v>0.003067512124866762</v>
       </c>
       <c r="H50">
-        <v>0.06713928261012901</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02946803188890931</v>
+      </c>
+      <c r="I50">
+        <v>-0.006205478150581473</v>
+      </c>
+      <c r="J50">
+        <v>0.06300787707986005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03395488635296579</v>
+        <v>0.0143051177906932</v>
       </c>
       <c r="C51">
-        <v>-0.01130840668672235</v>
+        <v>-0.008789821403113875</v>
       </c>
       <c r="D51">
-        <v>0.01377613469368574</v>
+        <v>-0.002124784364192691</v>
       </c>
       <c r="E51">
-        <v>-0.02281359239715989</v>
+        <v>0.01604615215150313</v>
       </c>
       <c r="F51">
-        <v>-0.03283529615432246</v>
+        <v>0.007003582282495167</v>
       </c>
       <c r="G51">
-        <v>-0.01187999498697972</v>
+        <v>-0.02505938147543312</v>
       </c>
       <c r="H51">
-        <v>-0.03715901502591444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.007580261013468673</v>
+      </c>
+      <c r="I51">
+        <v>-0.006988991796220841</v>
+      </c>
+      <c r="J51">
+        <v>-0.01993506844601842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1044896058024383</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.06148850367306501</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.03084759578940468</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0266287680173672</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01724889027767814</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.01349718299689756</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.02606226324859351</v>
+      </c>
+      <c r="I52">
+        <v>0.07056674177324659</v>
+      </c>
+      <c r="J52">
+        <v>0.08689332226475148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1664324836999292</v>
+        <v>0.1565945776519536</v>
       </c>
       <c r="C53">
-        <v>-0.009322146949252137</v>
+        <v>0.005464410460704387</v>
       </c>
       <c r="D53">
-        <v>0.001595934079595042</v>
+        <v>0.00681813739823484</v>
       </c>
       <c r="E53">
-        <v>0.04072685441860704</v>
+        <v>-0.02172112562197309</v>
       </c>
       <c r="F53">
-        <v>-0.1699368624883101</v>
+        <v>0.05524961995490972</v>
       </c>
       <c r="G53">
-        <v>-0.02959314467611717</v>
+        <v>-0.05612599693753442</v>
       </c>
       <c r="H53">
-        <v>0.04719934935353642</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.08669676129625303</v>
+      </c>
+      <c r="I53">
+        <v>0.154788713032954</v>
+      </c>
+      <c r="J53">
+        <v>0.13003098482352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05241135865724265</v>
+        <v>0.05036341604358752</v>
       </c>
       <c r="C54">
-        <v>-0.003486387322587012</v>
+        <v>0.004109701642900821</v>
       </c>
       <c r="D54">
-        <v>0.02707084592297784</v>
+        <v>-0.01005170416758423</v>
       </c>
       <c r="E54">
-        <v>-0.006809017195083686</v>
+        <v>0.01339057588572976</v>
       </c>
       <c r="F54">
-        <v>0.01955934587114702</v>
+        <v>0.01583082309059993</v>
       </c>
       <c r="G54">
-        <v>0.04699912093101376</v>
+        <v>0.02055436882470028</v>
       </c>
       <c r="H54">
-        <v>0.07925774706493713</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.05971200711449362</v>
+      </c>
+      <c r="I54">
+        <v>-0.06840395164286457</v>
+      </c>
+      <c r="J54">
+        <v>0.1099650511167846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1034345518352833</v>
+        <v>0.09315998641923905</v>
       </c>
       <c r="C55">
-        <v>-0.01332868950470855</v>
+        <v>0.02153683156171481</v>
       </c>
       <c r="D55">
-        <v>0.01187890466091404</v>
+        <v>0.01997309126095118</v>
       </c>
       <c r="E55">
-        <v>0.01485783316826355</v>
+        <v>0.03108065003365891</v>
       </c>
       <c r="F55">
-        <v>-0.08460454714398118</v>
+        <v>0.00235525646508502</v>
       </c>
       <c r="G55">
-        <v>0.02831364236956352</v>
+        <v>-0.01089744562794189</v>
       </c>
       <c r="H55">
-        <v>0.08089576529411396</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.02398420100375649</v>
+      </c>
+      <c r="I55">
+        <v>0.0482550779304796</v>
+      </c>
+      <c r="J55">
+        <v>0.1081334031378163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1686475340158351</v>
+        <v>0.1596307397965593</v>
       </c>
       <c r="C56">
-        <v>-0.00753442353449481</v>
+        <v>0.01352375516721657</v>
       </c>
       <c r="D56">
-        <v>-0.006296181464743666</v>
+        <v>-0.00683100046950552</v>
       </c>
       <c r="E56">
-        <v>0.07462168939831894</v>
+        <v>0.01110682157660884</v>
       </c>
       <c r="F56">
-        <v>-0.1658767534962646</v>
+        <v>0.008334272761201768</v>
       </c>
       <c r="G56">
-        <v>-0.01482876146628856</v>
+        <v>-0.04958572255428547</v>
       </c>
       <c r="H56">
-        <v>0.05054782962373534</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.01581880145137455</v>
+      </c>
+      <c r="I56">
+        <v>0.1228349717246797</v>
+      </c>
+      <c r="J56">
+        <v>0.116408606752431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01856853238025248</v>
+        <v>0.04056164460826374</v>
       </c>
       <c r="C58">
-        <v>-0.06341842778774714</v>
+        <v>0.01935623112333547</v>
       </c>
       <c r="D58">
-        <v>0.1033573920500202</v>
+        <v>-0.01516168218431049</v>
       </c>
       <c r="E58">
-        <v>0.01255904254140919</v>
+        <v>0.008031599682218353</v>
       </c>
       <c r="F58">
-        <v>0.5112386535403651</v>
+        <v>0.06538429828754735</v>
       </c>
       <c r="G58">
-        <v>0.1647325334362536</v>
+        <v>0.03046932957891471</v>
       </c>
       <c r="H58">
-        <v>-0.2619499684056452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1099009120572628</v>
+      </c>
+      <c r="I58">
+        <v>0.0277908083803245</v>
+      </c>
+      <c r="J58">
+        <v>0.0620239399928554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1491917282760267</v>
+        <v>0.1353812094099768</v>
       </c>
       <c r="C59">
-        <v>0.3723324160274439</v>
+        <v>-0.3049095952159965</v>
       </c>
       <c r="D59">
-        <v>-0.02619330336025906</v>
+        <v>0.06809823552892232</v>
       </c>
       <c r="E59">
-        <v>-0.04477379396308551</v>
+        <v>0.04288506613797603</v>
       </c>
       <c r="F59">
-        <v>-0.03993549130507678</v>
+        <v>-0.04264427486489562</v>
       </c>
       <c r="G59">
-        <v>-0.006354038177766853</v>
+        <v>-0.03066085948015946</v>
       </c>
       <c r="H59">
-        <v>-0.03640693501452602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.04912504524783364</v>
+      </c>
+      <c r="I59">
+        <v>-0.06888673986359285</v>
+      </c>
+      <c r="J59">
+        <v>0.006128347309371915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2799033701503002</v>
+        <v>0.281903305407001</v>
       </c>
       <c r="C60">
-        <v>-0.04841920411379057</v>
+        <v>0.05811420442607505</v>
       </c>
       <c r="D60">
-        <v>-0.06907331291520724</v>
+        <v>-0.00194634377842461</v>
       </c>
       <c r="E60">
-        <v>-0.0367340790004528</v>
+        <v>-0.0797395752385244</v>
       </c>
       <c r="F60">
-        <v>0.02795758729566754</v>
+        <v>-0.02548327300396495</v>
       </c>
       <c r="G60">
-        <v>-0.1724913414567045</v>
+        <v>-0.1949586783253116</v>
       </c>
       <c r="H60">
-        <v>-0.07481768487005651</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1174504393255496</v>
+      </c>
+      <c r="I60">
+        <v>0.03427576718154816</v>
+      </c>
+      <c r="J60">
+        <v>-0.4978405968472848</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09353511488176772</v>
+        <v>0.1202014566194603</v>
       </c>
       <c r="C61">
-        <v>-0.01948502689002964</v>
+        <v>0.06004636351512484</v>
       </c>
       <c r="D61">
-        <v>0.02365288827922192</v>
+        <v>-0.001593635472074376</v>
       </c>
       <c r="E61">
-        <v>-0.01621863609310969</v>
+        <v>0.04457763711661838</v>
       </c>
       <c r="F61">
-        <v>-0.03220379278136429</v>
+        <v>-0.1138659140672</v>
       </c>
       <c r="G61">
-        <v>0.08420674734867228</v>
+        <v>0.01623303382291302</v>
       </c>
       <c r="H61">
-        <v>-0.02116180321960508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1386234940432316</v>
+      </c>
+      <c r="I61">
+        <v>-0.08676875570605927</v>
+      </c>
+      <c r="J61">
+        <v>0.07198688807610114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.144575044158613</v>
+        <v>0.1621697569215285</v>
       </c>
       <c r="C62">
-        <v>-0.03771979350066916</v>
+        <v>0.02804370370857988</v>
       </c>
       <c r="D62">
-        <v>-0.05599401972272126</v>
+        <v>-0.001536518528134858</v>
       </c>
       <c r="E62">
-        <v>0.08731052310017068</v>
+        <v>-0.003506434063175627</v>
       </c>
       <c r="F62">
-        <v>-0.168496954451613</v>
+        <v>0.01352997524851361</v>
       </c>
       <c r="G62">
-        <v>-0.02377818385809684</v>
+        <v>-0.01348807586999533</v>
       </c>
       <c r="H62">
-        <v>0.06729102072804648</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.04779908104867334</v>
+      </c>
+      <c r="I62">
+        <v>0.1177136103126008</v>
+      </c>
+      <c r="J62">
+        <v>0.108125950731383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04534677242115649</v>
+        <v>0.05101018564337578</v>
       </c>
       <c r="C63">
-        <v>-0.01775310516821422</v>
+        <v>0.02360261876986181</v>
       </c>
       <c r="D63">
-        <v>0.0005932499021612881</v>
+        <v>0.004293762150904275</v>
       </c>
       <c r="E63">
-        <v>0.0162156893235479</v>
+        <v>0.02812332987133851</v>
       </c>
       <c r="F63">
-        <v>0.01601856996742874</v>
+        <v>-0.006819394754881972</v>
       </c>
       <c r="G63">
-        <v>0.02860850493859153</v>
+        <v>0.0578059398466381</v>
       </c>
       <c r="H63">
-        <v>0.1093085590360813</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.03498137388614418</v>
+      </c>
+      <c r="I63">
+        <v>-0.03399687451636558</v>
+      </c>
+      <c r="J63">
+        <v>0.09546461751163313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1097032893936637</v>
+        <v>0.1032314052292187</v>
       </c>
       <c r="C64">
-        <v>-0.008811055581106106</v>
+        <v>0.0216232724201466</v>
       </c>
       <c r="D64">
-        <v>0.01541009752772173</v>
+        <v>-0.0094394978796205</v>
       </c>
       <c r="E64">
-        <v>-0.03578172539011906</v>
+        <v>0.008605641172045405</v>
       </c>
       <c r="F64">
-        <v>-0.01092935313645772</v>
+        <v>-0.008156972873595503</v>
       </c>
       <c r="G64">
-        <v>0.02830404339642474</v>
+        <v>-0.04244579720810729</v>
       </c>
       <c r="H64">
-        <v>0.01008226741622624</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.05538776112656272</v>
+      </c>
+      <c r="I64">
+        <v>-0.02246950935913074</v>
+      </c>
+      <c r="J64">
+        <v>0.02187092844425858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1064284757255131</v>
+        <v>0.1127195216166625</v>
       </c>
       <c r="C65">
-        <v>-0.03255379988850526</v>
+        <v>0.006406778374637282</v>
       </c>
       <c r="D65">
-        <v>-0.001720454560127386</v>
+        <v>0.00977677446927654</v>
       </c>
       <c r="E65">
-        <v>-0.01013595579168241</v>
+        <v>-0.01888269747778513</v>
       </c>
       <c r="F65">
-        <v>0.4701715542798807</v>
+        <v>-0.01627400348634763</v>
       </c>
       <c r="G65">
-        <v>-0.1781416437487149</v>
+        <v>0.07976444386798688</v>
       </c>
       <c r="H65">
-        <v>0.5357558567067884</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.02422642672508618</v>
+      </c>
+      <c r="I65">
+        <v>-0.05706085254588503</v>
+      </c>
+      <c r="J65">
+        <v>-0.1384983672713313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1532455119707475</v>
+        <v>0.1837558968554472</v>
       </c>
       <c r="C66">
-        <v>-0.04824930035178506</v>
+        <v>0.1051119877317977</v>
       </c>
       <c r="D66">
-        <v>0.01279503555116129</v>
+        <v>-0.04492765405543095</v>
       </c>
       <c r="E66">
-        <v>-0.05647308939543116</v>
+        <v>0.06215802342750554</v>
       </c>
       <c r="F66">
-        <v>-0.111620807801752</v>
+        <v>-0.1725153824205868</v>
       </c>
       <c r="G66">
-        <v>0.2726188951428495</v>
+        <v>0.01335646274521099</v>
       </c>
       <c r="H66">
-        <v>-0.165110869123309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1540016622185653</v>
+      </c>
+      <c r="I66">
+        <v>-0.009617267389908341</v>
+      </c>
+      <c r="J66">
+        <v>0.01325312366440093</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1078614580321407</v>
+        <v>0.07897790803674971</v>
       </c>
       <c r="C67">
-        <v>-0.04002998687136412</v>
+        <v>0.02578950948506306</v>
       </c>
       <c r="D67">
-        <v>-0.01200217645728558</v>
+        <v>0.00580918178906409</v>
       </c>
       <c r="E67">
-        <v>-0.03506037010905794</v>
+        <v>0.078416438691793</v>
       </c>
       <c r="F67">
-        <v>-0.06224334220877122</v>
+        <v>-0.005753894440570245</v>
       </c>
       <c r="G67">
-        <v>0.03821301342746751</v>
+        <v>-0.07078263188949094</v>
       </c>
       <c r="H67">
-        <v>0.00613854179455296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.06371549768098755</v>
+      </c>
+      <c r="I67">
+        <v>-0.003888583610654964</v>
+      </c>
+      <c r="J67">
+        <v>-0.132627050764849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.04039714454545977</v>
+        <v>0.05414461010758952</v>
       </c>
       <c r="C68">
-        <v>0.2931733371480876</v>
+        <v>-0.2776747629228164</v>
       </c>
       <c r="D68">
-        <v>0.004426383114726038</v>
+        <v>0.06706509457922873</v>
       </c>
       <c r="E68">
-        <v>0.02203487643738248</v>
+        <v>0.02676814218602709</v>
       </c>
       <c r="F68">
-        <v>0.0268443645981242</v>
+        <v>-0.06120000482358269</v>
       </c>
       <c r="G68">
-        <v>-0.02023373640715102</v>
+        <v>0.03396292488544819</v>
       </c>
       <c r="H68">
-        <v>0.02918690591141414</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.0393788387108424</v>
+      </c>
+      <c r="I68">
+        <v>-0.04120603038224546</v>
+      </c>
+      <c r="J68">
+        <v>-0.005670899022039394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.04954410745830111</v>
+        <v>0.03775132429602159</v>
       </c>
       <c r="C69">
-        <v>-0.009887880648128771</v>
+        <v>-0.0001142490825966283</v>
       </c>
       <c r="D69">
-        <v>0.004487717324622793</v>
+        <v>0.01189994051484497</v>
       </c>
       <c r="E69">
-        <v>0.04144719165901537</v>
+        <v>0.02193285405530849</v>
       </c>
       <c r="F69">
-        <v>-4.014850357136909e-05</v>
+        <v>-0.002486977712027313</v>
       </c>
       <c r="G69">
-        <v>0.01072582944879047</v>
+        <v>-0.0004137357409496216</v>
       </c>
       <c r="H69">
-        <v>-0.001182417576409062</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.02201822189976978</v>
+      </c>
+      <c r="I69">
+        <v>0.001411626405683246</v>
+      </c>
+      <c r="J69">
+        <v>0.01025858695153455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08196293299568636</v>
+        <v>0.03910068070358104</v>
       </c>
       <c r="C70">
-        <v>-0.008091225316079149</v>
+        <v>-0.00879200507954182</v>
       </c>
       <c r="D70">
-        <v>-0.03397105331501309</v>
+        <v>0.02061022679234669</v>
       </c>
       <c r="E70">
-        <v>-0.05329363069761131</v>
+        <v>0.02617756213835234</v>
       </c>
       <c r="F70">
-        <v>-0.01967623871142641</v>
+        <v>-0.02329965356389903</v>
       </c>
       <c r="G70">
-        <v>-0.04925481103436931</v>
+        <v>-0.05767822498621226</v>
       </c>
       <c r="H70">
-        <v>-0.001233196382061577</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01578440365054828</v>
+      </c>
+      <c r="I70">
+        <v>0.009757288749729845</v>
+      </c>
+      <c r="J70">
+        <v>0.06466773275689633</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.05009980319005725</v>
+        <v>0.06370649216803508</v>
       </c>
       <c r="C71">
-        <v>0.300828248428872</v>
+        <v>-0.2960997079590082</v>
       </c>
       <c r="D71">
-        <v>-0.003076642665715525</v>
+        <v>0.07321905244374421</v>
       </c>
       <c r="E71">
-        <v>-0.005592836154108008</v>
+        <v>0.02871780850819536</v>
       </c>
       <c r="F71">
-        <v>0.007652200985530965</v>
+        <v>-0.05111902150709692</v>
       </c>
       <c r="G71">
-        <v>0.003231418009644545</v>
+        <v>0.01132162716909269</v>
       </c>
       <c r="H71">
-        <v>-0.004610240801869951</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.05079216814466271</v>
+      </c>
+      <c r="I71">
+        <v>-0.04121052308189248</v>
+      </c>
+      <c r="J71">
+        <v>-0.01745119360276347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1285173128076267</v>
+        <v>0.1342497092248058</v>
       </c>
       <c r="C72">
-        <v>0.01427920829634887</v>
+        <v>-0.02465749980045029</v>
       </c>
       <c r="D72">
-        <v>-0.07544310026419872</v>
+        <v>-0.01235676436268113</v>
       </c>
       <c r="E72">
-        <v>0.1331817462752029</v>
+        <v>0.02129189846547018</v>
       </c>
       <c r="F72">
-        <v>-0.001060968832761793</v>
+        <v>0.0002227465741151344</v>
       </c>
       <c r="G72">
-        <v>0.0419865452205566</v>
+        <v>0.03796775845411604</v>
       </c>
       <c r="H72">
-        <v>0.09164871616711016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.05526225635677683</v>
+      </c>
+      <c r="I72">
+        <v>0.00964216953156285</v>
+      </c>
+      <c r="J72">
+        <v>0.03067991467042158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2720559996252116</v>
+        <v>0.2342388578975958</v>
       </c>
       <c r="C73">
-        <v>-0.1387277039255647</v>
+        <v>0.01094430265390439</v>
       </c>
       <c r="D73">
-        <v>-0.132860489684832</v>
+        <v>-0.02987989639743325</v>
       </c>
       <c r="E73">
-        <v>-0.06905772875989442</v>
+        <v>0.008268743880706971</v>
       </c>
       <c r="F73">
-        <v>0.1826951878702386</v>
+        <v>-0.02521964932119778</v>
       </c>
       <c r="G73">
-        <v>-0.3538757500565586</v>
+        <v>-0.2417317441409842</v>
       </c>
       <c r="H73">
-        <v>-0.4158785313968554</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.1873223029141097</v>
+      </c>
+      <c r="I73">
+        <v>0.1962597048761523</v>
+      </c>
+      <c r="J73">
+        <v>-0.288306291463759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1027696387923044</v>
+        <v>0.1127236191202962</v>
       </c>
       <c r="C74">
-        <v>-0.03598178401792474</v>
+        <v>0.02424504064823373</v>
       </c>
       <c r="D74">
-        <v>0.008008823691872504</v>
+        <v>-0.02372532544145082</v>
       </c>
       <c r="E74">
-        <v>0.01309506426948066</v>
+        <v>0.01514100197576335</v>
       </c>
       <c r="F74">
-        <v>-0.08512320656670096</v>
+        <v>0.01788621099897666</v>
       </c>
       <c r="G74">
-        <v>-0.04236500001329628</v>
+        <v>-0.004868808759473798</v>
       </c>
       <c r="H74">
-        <v>0.01957663429271058</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.007452951024309411</v>
+      </c>
+      <c r="I74">
+        <v>0.1139858425065005</v>
+      </c>
+      <c r="J74">
+        <v>0.1038917421684129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09814866212802138</v>
+        <v>0.1220931346892004</v>
       </c>
       <c r="C75">
-        <v>-0.0212113645029572</v>
+        <v>0.0288378609244729</v>
       </c>
       <c r="D75">
-        <v>-0.006250724083755366</v>
+        <v>-0.02353021819744077</v>
       </c>
       <c r="E75">
-        <v>0.06844981511619334</v>
+        <v>0.006843049746426524</v>
       </c>
       <c r="F75">
-        <v>-0.05973194456423506</v>
+        <v>0.00997600603042161</v>
       </c>
       <c r="G75">
-        <v>-0.0259722444344604</v>
+        <v>0.01492601214854707</v>
       </c>
       <c r="H75">
-        <v>0.02243545420814347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.007597728539363887</v>
+      </c>
+      <c r="I75">
+        <v>0.05466972581240277</v>
+      </c>
+      <c r="J75">
+        <v>0.08982833491266259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1459099496408399</v>
+        <v>0.0436718156386655</v>
       </c>
       <c r="C76">
-        <v>-0.0314513446075425</v>
+        <v>-0.004834308317160139</v>
       </c>
       <c r="D76">
-        <v>0.03921813743223965</v>
+        <v>-0.01006994455173908</v>
       </c>
       <c r="E76">
-        <v>0.03953603244483692</v>
+        <v>0.02806660241513047</v>
       </c>
       <c r="F76">
-        <v>-0.174792771436407</v>
+        <v>0.02920806657880325</v>
       </c>
       <c r="G76">
-        <v>-0.06026178031118526</v>
+        <v>-0.04467869427174722</v>
       </c>
       <c r="H76">
-        <v>0.03751632437007792</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04158487999466495</v>
+      </c>
+      <c r="I76">
+        <v>0.03035751949872361</v>
+      </c>
+      <c r="J76">
+        <v>0.04828965922177818</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07444382629644619</v>
+        <v>0.09026850972824647</v>
       </c>
       <c r="C77">
-        <v>0.01291587810983901</v>
+        <v>0.08036800491841641</v>
       </c>
       <c r="D77">
-        <v>0.009523435659043254</v>
+        <v>-0.01520026115165639</v>
       </c>
       <c r="E77">
-        <v>-0.1155314667169807</v>
+        <v>-0.00689341967811843</v>
       </c>
       <c r="F77">
-        <v>0.2143852941953301</v>
+        <v>-0.01770841853533318</v>
       </c>
       <c r="G77">
-        <v>0.1235053413014161</v>
+        <v>-0.001153672949755383</v>
       </c>
       <c r="H77">
-        <v>-0.2151032454567131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.07764968034993516</v>
+      </c>
+      <c r="I77">
+        <v>-0.205597502643412</v>
+      </c>
+      <c r="J77">
+        <v>-0.1111471736289239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2312061403291555</v>
+        <v>0.1409513464711198</v>
       </c>
       <c r="C78">
-        <v>-0.03776872780698465</v>
+        <v>0.02427127815020524</v>
       </c>
       <c r="D78">
-        <v>0.1563243541742604</v>
+        <v>-0.1473642412967621</v>
       </c>
       <c r="E78">
-        <v>-0.09557803129014836</v>
+        <v>0.2297713291311028</v>
       </c>
       <c r="F78">
-        <v>0.08567604499522782</v>
+        <v>0.3243226731138623</v>
       </c>
       <c r="G78">
-        <v>0.1936438281699851</v>
+        <v>0.06151399848900253</v>
       </c>
       <c r="H78">
-        <v>0.1239835347351069</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4994331099398283</v>
+      </c>
+      <c r="I78">
+        <v>-0.6505644429763234</v>
+      </c>
+      <c r="J78">
+        <v>0.09159145725056725</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1403407295920671</v>
+        <v>0.1427065436577087</v>
       </c>
       <c r="C79">
-        <v>-0.0111567212512959</v>
+        <v>0.02124518592687096</v>
       </c>
       <c r="D79">
-        <v>-0.00663385340088448</v>
+        <v>-0.04213807794590745</v>
       </c>
       <c r="E79">
-        <v>0.04828548077770609</v>
+        <v>-0.00559082578827314</v>
       </c>
       <c r="F79">
-        <v>-0.08581882320053488</v>
+        <v>0.01443768946037799</v>
       </c>
       <c r="G79">
-        <v>0.007679679856022631</v>
+        <v>-0.02080950888894164</v>
       </c>
       <c r="H79">
-        <v>0.06398489658655877</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.01010651660959444</v>
+      </c>
+      <c r="I79">
+        <v>0.1158163938686417</v>
+      </c>
+      <c r="J79">
+        <v>0.1104652609906427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0429731350759388</v>
+        <v>0.07655668171206029</v>
       </c>
       <c r="C80">
-        <v>0.009236684271595276</v>
+        <v>0.04810015704342322</v>
       </c>
       <c r="D80">
-        <v>-0.1067794623874969</v>
+        <v>0.01543000427043697</v>
       </c>
       <c r="E80">
-        <v>-0.04004864596595321</v>
+        <v>0.03028326179098408</v>
       </c>
       <c r="F80">
-        <v>0.04062040144180959</v>
+        <v>-0.05413496973612168</v>
       </c>
       <c r="G80">
-        <v>0.02062397377716596</v>
+        <v>0.00358857805495726</v>
       </c>
       <c r="H80">
-        <v>0.119463986145696</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.01945390647127648</v>
+      </c>
+      <c r="I80">
+        <v>-0.01553404937110111</v>
+      </c>
+      <c r="J80">
+        <v>0.1324543267666373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.108862330371285</v>
+        <v>0.1426355502293639</v>
       </c>
       <c r="C81">
-        <v>-0.001509906531716787</v>
+        <v>0.03783569248442981</v>
       </c>
       <c r="D81">
-        <v>0.00388945742283803</v>
+        <v>-0.0285277974543302</v>
       </c>
       <c r="E81">
-        <v>0.02129860910353476</v>
+        <v>0.01922841207123061</v>
       </c>
       <c r="F81">
-        <v>-0.1166940069913395</v>
+        <v>0.01857084638217363</v>
       </c>
       <c r="G81">
-        <v>0.008741122634786208</v>
+        <v>-0.00553935079885846</v>
       </c>
       <c r="H81">
-        <v>0.03604274994760534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.01105510142574075</v>
+      </c>
+      <c r="I81">
+        <v>0.04277353523297279</v>
+      </c>
+      <c r="J81">
+        <v>0.1486547569183992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1195599519142452</v>
+        <v>0.1648780395492489</v>
       </c>
       <c r="C82">
-        <v>-0.01863199811331942</v>
+        <v>0.04739954698452199</v>
       </c>
       <c r="D82">
-        <v>-0.02362718072203157</v>
+        <v>0.007741688039325315</v>
       </c>
       <c r="E82">
-        <v>-0.03621690371839854</v>
+        <v>0.003008179180678047</v>
       </c>
       <c r="F82">
-        <v>-0.210526323932295</v>
+        <v>-0.001010770839201546</v>
       </c>
       <c r="G82">
-        <v>-0.007594860856251185</v>
+        <v>-0.05212590661557109</v>
       </c>
       <c r="H82">
-        <v>0.07169077345564698</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.03788466930568471</v>
+      </c>
+      <c r="I82">
+        <v>0.1599703216228925</v>
+      </c>
+      <c r="J82">
+        <v>0.1902340276482371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1113651135263016</v>
+        <v>0.08768612768515811</v>
       </c>
       <c r="C83">
-        <v>-0.04308969036907487</v>
+        <v>0.02937394477935564</v>
       </c>
       <c r="D83">
-        <v>-0.03247455598725876</v>
+        <v>-9.885429328047747e-05</v>
       </c>
       <c r="E83">
-        <v>-0.09038148802071186</v>
+        <v>-0.05481037629961207</v>
       </c>
       <c r="F83">
-        <v>0.02583638522148804</v>
+        <v>0.03423736007877046</v>
       </c>
       <c r="G83">
-        <v>0.0692718459221397</v>
+        <v>0.05139845432197117</v>
       </c>
       <c r="H83">
-        <v>-0.07048517364663823</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.04269272801745232</v>
+      </c>
+      <c r="I83">
+        <v>-0.06006853263296495</v>
+      </c>
+      <c r="J83">
+        <v>0.1067500075384087</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04911436171317402</v>
+        <v>0.06590186334090961</v>
       </c>
       <c r="C84">
-        <v>-0.03071540793022697</v>
+        <v>0.01728218128693008</v>
       </c>
       <c r="D84">
-        <v>0.01176610443451826</v>
+        <v>0.001125840566481182</v>
       </c>
       <c r="E84">
-        <v>0.04387893132774177</v>
+        <v>-0.01920027824033383</v>
       </c>
       <c r="F84">
-        <v>-0.06688938583560557</v>
+        <v>-0.08678374349635846</v>
       </c>
       <c r="G84">
-        <v>-0.005627922041576921</v>
+        <v>-0.0304415282027027</v>
       </c>
       <c r="H84">
-        <v>0.04312150072922102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.07971855682253305</v>
+      </c>
+      <c r="I84">
+        <v>-0.09142649994264021</v>
+      </c>
+      <c r="J84">
+        <v>-0.1777104523285338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1119493695621533</v>
+        <v>0.1244433873381611</v>
       </c>
       <c r="C85">
-        <v>-0.018066306917621</v>
+        <v>0.01276765334570292</v>
       </c>
       <c r="D85">
-        <v>0.0002882292607765214</v>
+        <v>-0.01260800286192268</v>
       </c>
       <c r="E85">
-        <v>0.07279730889496873</v>
+        <v>0.001979189604264328</v>
       </c>
       <c r="F85">
-        <v>-0.1161868274047375</v>
+        <v>0.01840366720768334</v>
       </c>
       <c r="G85">
-        <v>0.02075469120846525</v>
+        <v>-0.01871877281316399</v>
       </c>
       <c r="H85">
-        <v>0.09769341176250895</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.008769158686062628</v>
+      </c>
+      <c r="I85">
+        <v>0.06882115950659323</v>
+      </c>
+      <c r="J85">
+        <v>0.1035387712728693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06631850033862212</v>
+        <v>0.1122300496322421</v>
       </c>
       <c r="C86">
-        <v>-0.01912531844318194</v>
+        <v>-0.08090329323590278</v>
       </c>
       <c r="D86">
-        <v>0.02649766051142169</v>
+        <v>-0.3273385211535804</v>
       </c>
       <c r="E86">
-        <v>-0.1177966856825646</v>
+        <v>-0.8729484225257826</v>
       </c>
       <c r="F86">
-        <v>-0.02423644561782038</v>
+        <v>0.1116141933368904</v>
       </c>
       <c r="G86">
-        <v>-0.06197059707248229</v>
+        <v>0.1080678056294921</v>
       </c>
       <c r="H86">
-        <v>0.2093471606277744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.08346254135432393</v>
+      </c>
+      <c r="I86">
+        <v>-0.1559058654889644</v>
+      </c>
+      <c r="J86">
+        <v>0.03079440897764939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1131316756716589</v>
+        <v>0.1205698065631928</v>
       </c>
       <c r="C87">
-        <v>-0.04676423368919407</v>
+        <v>0.08626967852700994</v>
       </c>
       <c r="D87">
-        <v>0.02786290043669229</v>
+        <v>0.05964072735495374</v>
       </c>
       <c r="E87">
-        <v>-0.03072921800617429</v>
+        <v>-0.004867704053303383</v>
       </c>
       <c r="F87">
-        <v>0.05466711312223595</v>
+        <v>0.00168790798422997</v>
       </c>
       <c r="G87">
-        <v>0.1381999857011548</v>
+        <v>-0.01302050958658825</v>
       </c>
       <c r="H87">
-        <v>0.0347834465968967</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.0778585709015687</v>
+      </c>
+      <c r="I87">
+        <v>-0.2151157409192488</v>
+      </c>
+      <c r="J87">
+        <v>-0.05422206470686914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07484836829568153</v>
+        <v>0.05499561341002583</v>
       </c>
       <c r="C88">
-        <v>-0.03732198727939579</v>
+        <v>0.02474416327915739</v>
       </c>
       <c r="D88">
-        <v>0.008950782353220039</v>
+        <v>-0.0265574260351215</v>
       </c>
       <c r="E88">
-        <v>-0.02914158093823537</v>
+        <v>0.0347640499733147</v>
       </c>
       <c r="F88">
-        <v>-0.01728082336490034</v>
+        <v>-0.05495731463722348</v>
       </c>
       <c r="G88">
-        <v>0.05455813740209167</v>
+        <v>-0.01243320504567523</v>
       </c>
       <c r="H88">
-        <v>0.01600343518682729</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.003620329772716495</v>
+      </c>
+      <c r="I88">
+        <v>-0.0221646298926666</v>
+      </c>
+      <c r="J88">
+        <v>0.05389288644605672</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.0909785223809884</v>
+        <v>0.1056084978213427</v>
       </c>
       <c r="C89">
-        <v>0.3878781139737552</v>
+        <v>-0.3730907816714257</v>
       </c>
       <c r="D89">
-        <v>0.01185474543108016</v>
+        <v>0.0854930257988727</v>
       </c>
       <c r="E89">
-        <v>-0.05283745318610121</v>
+        <v>0.01607171058713549</v>
       </c>
       <c r="F89">
-        <v>0.01495008548547416</v>
+        <v>0.006302976902663817</v>
       </c>
       <c r="G89">
-        <v>-0.004532358616200458</v>
+        <v>-0.03518129137614142</v>
       </c>
       <c r="H89">
-        <v>-0.03284610904543346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02878983689562428</v>
+      </c>
+      <c r="I89">
+        <v>-0.0437391449899698</v>
+      </c>
+      <c r="J89">
+        <v>0.001545368873685493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.0706977587362338</v>
+        <v>0.07578428911466134</v>
       </c>
       <c r="C90">
-        <v>0.3004340380614441</v>
+        <v>-0.302698884779475</v>
       </c>
       <c r="D90">
-        <v>0.02727062474810263</v>
+        <v>0.06931446259006996</v>
       </c>
       <c r="E90">
-        <v>-0.01718923638964593</v>
+        <v>0.01746679989665789</v>
       </c>
       <c r="F90">
-        <v>-0.00817151326017466</v>
+        <v>-0.05806320106290351</v>
       </c>
       <c r="G90">
-        <v>0.02379594220169218</v>
+        <v>-0.0006940668000801984</v>
       </c>
       <c r="H90">
-        <v>-0.04147007852156311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06312733531353243</v>
+      </c>
+      <c r="I90">
+        <v>-0.03102604912335414</v>
+      </c>
+      <c r="J90">
+        <v>-0.01473385145764769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08352116896134268</v>
+        <v>0.09168562644341943</v>
       </c>
       <c r="C91">
-        <v>-0.03074801859127887</v>
+        <v>0.02144395947142909</v>
       </c>
       <c r="D91">
-        <v>0.005591715727241224</v>
+        <v>-0.0202867146191753</v>
       </c>
       <c r="E91">
-        <v>0.0119882662379732</v>
+        <v>-0.009782966728849287</v>
       </c>
       <c r="F91">
-        <v>-0.04335367087614009</v>
+        <v>0.0185239226967544</v>
       </c>
       <c r="G91">
-        <v>-0.03819721127570017</v>
+        <v>-0.0209122153967932</v>
       </c>
       <c r="H91">
-        <v>-0.01147822914383106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.009120860321786387</v>
+      </c>
+      <c r="I91">
+        <v>0.04370939241251493</v>
+      </c>
+      <c r="J91">
+        <v>0.07398273771317743</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06536789419848739</v>
+        <v>0.08675789514445674</v>
       </c>
       <c r="C92">
-        <v>0.3584717566023671</v>
+        <v>-0.3348252420122874</v>
       </c>
       <c r="D92">
-        <v>0.02321251633363902</v>
+        <v>0.09774053931751182</v>
       </c>
       <c r="E92">
-        <v>-0.01965054403063302</v>
+        <v>0.003884495719362207</v>
       </c>
       <c r="F92">
-        <v>0.06151566058757582</v>
+        <v>-0.006468774108088728</v>
       </c>
       <c r="G92">
-        <v>-0.003555882826377946</v>
+        <v>0.02611792784100305</v>
       </c>
       <c r="H92">
-        <v>-0.02971416098697683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.06268179787567826</v>
+      </c>
+      <c r="I92">
+        <v>-0.02772039648168096</v>
+      </c>
+      <c r="J92">
+        <v>0.06085934580187875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08346367360698104</v>
+        <v>0.07802048775038617</v>
       </c>
       <c r="C93">
-        <v>0.3124462723198361</v>
+        <v>-0.3287345056520857</v>
       </c>
       <c r="D93">
-        <v>-0.01574165599840172</v>
+        <v>0.07319537723337279</v>
       </c>
       <c r="E93">
-        <v>-0.004370340754930193</v>
+        <v>0.004065388366107195</v>
       </c>
       <c r="F93">
-        <v>0.02917467015324998</v>
+        <v>-0.06446768928246392</v>
       </c>
       <c r="G93">
-        <v>-0.0276444706418142</v>
+        <v>-0.006362654966054477</v>
       </c>
       <c r="H93">
-        <v>0.004127091887308725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.03038869873759482</v>
+      </c>
+      <c r="I93">
+        <v>-0.03141411029705723</v>
+      </c>
+      <c r="J93">
+        <v>0.01045835983437694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09890319465493695</v>
+        <v>0.1428194722237002</v>
       </c>
       <c r="C94">
-        <v>-0.05010654401942144</v>
+        <v>0.03496777588127872</v>
       </c>
       <c r="D94">
-        <v>0.01339670925632157</v>
+        <v>-0.02343095334146499</v>
       </c>
       <c r="E94">
-        <v>0.03239224525732413</v>
+        <v>0.0448489966310061</v>
       </c>
       <c r="F94">
-        <v>-0.0809473958033306</v>
+        <v>0.02508767712663731</v>
       </c>
       <c r="G94">
-        <v>-0.03980056366563809</v>
+        <v>-0.009686620882094463</v>
       </c>
       <c r="H94">
-        <v>0.03123927248200154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.001397435442271208</v>
+      </c>
+      <c r="I94">
+        <v>0.06096097730228917</v>
+      </c>
+      <c r="J94">
+        <v>0.06161189577897127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1284764669686292</v>
+        <v>0.1252295039623067</v>
       </c>
       <c r="C95">
-        <v>-0.07038140112090281</v>
+        <v>0.04913788611771576</v>
       </c>
       <c r="D95">
-        <v>0.06709656306702164</v>
+        <v>-0.03284093079278892</v>
       </c>
       <c r="E95">
-        <v>-0.06876112254977786</v>
+        <v>0.03896869761165219</v>
       </c>
       <c r="F95">
-        <v>0.1242916620735014</v>
+        <v>-0.01831608579251821</v>
       </c>
       <c r="G95">
-        <v>0.0887973066640505</v>
+        <v>-0.01915644736538471</v>
       </c>
       <c r="H95">
-        <v>0.03776812700614619</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1086659470502193</v>
+      </c>
+      <c r="I95">
+        <v>-0.1466915337536472</v>
+      </c>
+      <c r="J95">
+        <v>-0.07266623307373501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01109140025705358</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0002180299412059282</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.002570480136005006</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.004267441698302485</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.003589965412637189</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.009674898979848802</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.001158283084870314</v>
+      </c>
+      <c r="I96">
+        <v>-0.02771265056778561</v>
+      </c>
+      <c r="J96">
+        <v>-0.007147871832708516</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1436862965910126</v>
+        <v>0.1746156462984212</v>
       </c>
       <c r="C97">
-        <v>0.04175772248827513</v>
+        <v>-0.01964960450574582</v>
       </c>
       <c r="D97">
-        <v>-0.1294846736972197</v>
+        <v>-0.04984107457073744</v>
       </c>
       <c r="E97">
-        <v>0.8808378214103441</v>
+        <v>0.1009268765307201</v>
       </c>
       <c r="F97">
-        <v>0.1361243307436854</v>
+        <v>0.0582860541228285</v>
       </c>
       <c r="G97">
-        <v>0.1128919997343857</v>
+        <v>0.8750366983930321</v>
       </c>
       <c r="H97">
-        <v>-0.03104327320503712</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.1281482337237322</v>
+      </c>
+      <c r="I97">
+        <v>0.2547203443678994</v>
+      </c>
+      <c r="J97">
+        <v>-0.1931394352352066</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3191999995156644</v>
+        <v>0.2630249014123482</v>
       </c>
       <c r="C98">
-        <v>-0.06348383689125961</v>
+        <v>-0.01161124526086761</v>
       </c>
       <c r="D98">
-        <v>-0.1783792473740012</v>
+        <v>0.05942641376515811</v>
       </c>
       <c r="E98">
-        <v>-0.1143581329903413</v>
+        <v>-0.1160360713344413</v>
       </c>
       <c r="F98">
-        <v>-0.004301061788089413</v>
+        <v>0.1793615459644371</v>
       </c>
       <c r="G98">
-        <v>-0.2316488269099208</v>
+        <v>-0.1442606469704274</v>
       </c>
       <c r="H98">
-        <v>-0.1371586289002889</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3369543825959484</v>
+      </c>
+      <c r="I98">
+        <v>0.2310130854569825</v>
+      </c>
+      <c r="J98">
+        <v>0.2161670502549068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.0888723051298406</v>
+        <v>0.05804464296998579</v>
       </c>
       <c r="C99">
-        <v>-0.02022610953127995</v>
+        <v>-0.003136528286795044</v>
       </c>
       <c r="D99">
-        <v>0.01145590382718207</v>
+        <v>-0.02123726069456901</v>
       </c>
       <c r="E99">
-        <v>0.00416932616141944</v>
+        <v>0.04345476190392478</v>
       </c>
       <c r="F99">
-        <v>-0.01462828893559246</v>
+        <v>-0.006070505197841965</v>
       </c>
       <c r="G99">
-        <v>-0.0009374204488468583</v>
+        <v>-0.01231642440824316</v>
       </c>
       <c r="H99">
-        <v>-0.07495730753298448</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02979035159039375</v>
+      </c>
+      <c r="I99">
+        <v>0.0121176814396371</v>
+      </c>
+      <c r="J99">
+        <v>-0.001461698991003977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0922444421662821</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2163520579831009</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8835007758312804</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2650516026563869</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.07565192258640099</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.09634786476775568</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.04004377657489015</v>
+      </c>
+      <c r="I100">
+        <v>-0.1288290324693647</v>
+      </c>
+      <c r="J100">
+        <v>0.005964365694888414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05783958518569382</v>
+        <v>0.03616894161283595</v>
       </c>
       <c r="C101">
-        <v>0.002758198387810502</v>
+        <v>0.004560516869493267</v>
       </c>
       <c r="D101">
-        <v>0.04021418262016103</v>
+        <v>0.005754281493850284</v>
       </c>
       <c r="E101">
-        <v>-0.03030902149777149</v>
+        <v>0.008951706201663093</v>
       </c>
       <c r="F101">
-        <v>-0.01429784289010126</v>
+        <v>-0.02479032252658519</v>
       </c>
       <c r="G101">
-        <v>0.04326390427342985</v>
+        <v>-0.01149009077256761</v>
       </c>
       <c r="H101">
-        <v>0.09938651873666328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.05810416321319985</v>
+      </c>
+      <c r="I101">
+        <v>-0.01046187905780475</v>
+      </c>
+      <c r="J101">
+        <v>0.1129350772112482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
